--- a/Captain Sonar.xlsx
+++ b/Captain Sonar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>Captain's Functions</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Scenario</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -410,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -486,6 +492,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="Q60" sqref="Q60"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1406,6 +1415,27 @@
       <c r="U35" s="20"/>
     </row>
     <row r="36" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47" t="s">
+        <v>23</v>
+      </c>
       <c r="R36" s="21"/>
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
